--- a/数据整理/stocks/A股/上证主板/603906-龙蟠科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603906-龙蟠科技.xlsx
@@ -451,631 +451,851 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5472</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0768</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9956</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8401</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5740</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>008276</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>财通资管价值发现混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>90.01</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>9.80</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4508</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009447</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>财通资管科技创新一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>60.91</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3029</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2566</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009059</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2335</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1476</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009060</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>860016</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>光大阳光启明星创新驱动主题混合A</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>91.00</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>3.71</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>860052</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>光大阳光启明星创新驱动主题混合B</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>91.00</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>3.71</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>860053</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>光大阳光启明星创新驱动主题混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>410001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华富竞争力优选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>89.56</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>710301</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>310358</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>申万菱信新经济混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>83.73</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>9.58</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002289</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华商改革创新股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>95.49</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>710301</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富安达增强收益债券A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>710302</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>20.36</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>0.77</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>710302</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富安达增强收益债券C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>20.36</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000800</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华商未来主题混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>82.01</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009059</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>南方沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009060</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>南方沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002851</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>南方品质优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>91.05</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>003886</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>汇安丰利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>8.58</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>003887</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>汇安丰利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>8.58</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>004703</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>南方兴盛先锋灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>90.80</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>7.31</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005123</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>南方优享分红灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>90.35</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005680</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>财通资管价值成长混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>87.82</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>9.59</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006587</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>南方优享分红灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>90.35</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>582003</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>东吴配置优化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1085,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,15 +1326,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003886</t>
+          <t>009950</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇安丰利灵活配置混合A</t>
+          <t>财通资管均衡价值一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>29.20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8441</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003887</t>
+          <t>010413</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇安丰利灵活配置混合C</t>
+          <t>财通资管宸瑞一年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.13</t>
+          <t>20.80</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>51.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0530</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004703</t>
+          <t>002851</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方兴盛先锋灵活配置混合</t>
+          <t>南方品质优选灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>87.27</t>
+          <t>19.45</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>6.79</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>8</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3207</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005123</t>
+          <t>009447</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>南方优享分红灵活配置混合A</t>
+          <t>财通资管科技创新一年定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.09</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9821</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006587</t>
+          <t>860001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>南方优享分红灵活配置混合C</t>
+          <t>光大阳光混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.33</t>
+          <t>12.70</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>7.09</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8242</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005680</t>
+          <t>310358</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>财通资管价值成长混合</t>
+          <t>申万菱信新经济混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>87.84</t>
+          <t>11.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>9.23</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8030</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1294,25 +1584,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009950</t>
+          <t>005680</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>财通资管均衡价值一年持有期混合</t>
+          <t>财通资管价值成长混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>9.74</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6664</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1322,25 +1622,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>310358</t>
+          <t>860016</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>申万菱信新经济混合</t>
+          <t>光大阳光启明星创新驱动主题混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.93</t>
+          <t>9.28</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.17</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6125</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000800</t>
+          <t>005123</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华商未来主题混合</t>
+          <t>南方优享分红灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>84.91</t>
+          <t>7.43</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5268</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>410001</t>
+          <t>001449</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华富竞争力优选混合</t>
+          <t>华商双驱优选灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>86.87</t>
+          <t>8.78</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>82.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3890</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010403</t>
+          <t>008276</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华商景气优选混合</t>
+          <t>财通资管价值发现混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>87.77</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3801</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>010413</t>
+          <t>860052</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>财通资管宸瑞一年持有期混合A</t>
+          <t>光大阳光启明星创新驱动主题混合B</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>51.32</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>9.87</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1</v>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2983</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010414</t>
+          <t>860053</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>财通资管宸瑞一年持有期混合C</t>
+          <t>光大阳光启明星创新驱动主题混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>51.32</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>9.87</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1</v>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2666</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001449</t>
+          <t>000800</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华商双驱优选灵活配置混合</t>
+          <t>华商未来主题混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>82.61</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>4.43</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>3</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2259</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002289</t>
+          <t>010414</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华商改革创新股票</t>
+          <t>财通资管宸瑞一年持有期混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>51.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2053</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>710301</t>
+          <t>003886</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>富安达增强收益债券A</t>
+          <t>汇安丰利灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20.28</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>1</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>710302</t>
+          <t>008555</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>富安达增强收益债券C</t>
+          <t>华商龙头优势混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>20.28</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1497</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009059</t>
+          <t>004703</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>南方沪深300指数增强A</t>
+          <t>南方兴盛先锋灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>2.14</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1453</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009060</t>
+          <t>003887</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>南方沪深300指数增强C</t>
+          <t>汇安丰利灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1450</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>002851</t>
+          <t>010403</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>南方品质优选灵活配置混合</t>
+          <t>华商景气优选混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>88.52</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>007713</t>
+          <t>410001</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华富科技动能混合</t>
+          <t>华富竞争力优选混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>87.45</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.47</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>9</v>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>003567</t>
+          <t>009059</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>华夏行业景气混合</t>
+          <t>南方沪深300指数增强A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>89.87</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>7.23</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1044</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24">
@@ -1742,25 +2192,35 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>008276</t>
+          <t>003567</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>财通资管价值发现混合</t>
+          <t>华夏行业景气混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>89.81</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>9.27</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1770,25 +2230,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>008555</t>
+          <t>007713</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华商龙头优势混合</t>
+          <t>华富科技动能混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>86.61</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>009447</t>
+          <t>002289</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>财通资管科技创新一年定期开放混合</t>
+          <t>华商改革创新股票</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>94.77</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>9.87</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>860001</t>
+          <t>710301</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>光大阳光混合A</t>
+          <t>富安达增强收益债券A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6.49</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>3</v>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>860036</t>
+          <t>009060</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>光大阳光混合B</t>
+          <t>南方沪深300指数增强C</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6.49</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>3</v>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="29">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>860037</t>
+          <t>710302</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>光大阳光混合C</t>
+          <t>富安达增强收益债券C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>94.76</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>6.49</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>3</v>
+          <t>20.28</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>860016</t>
+          <t>006587</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>光大阳光启明星创新驱动主题混合A</t>
+          <t>南方优享分红灵活配置混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>90.35</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>2</v>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>860052</t>
+          <t>860036</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>光大阳光启明星创新驱动主题混合B</t>
+          <t>光大阳光混合B</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>90.35</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>2</v>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -1966,26 +2496,30 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>860053</t>
+          <t>860037</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>光大阳光启明星创新驱动主题混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>90.35</t>
-        </is>
-      </c>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>2</v>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603906-龙蟠科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603906-龙蟠科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2504,7 +2505,6 @@
           <t>光大阳光混合C</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t>94.76</t>
@@ -2520,6 +2520,1800 @@
       </c>
       <c r="H32" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3948</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>64.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0835</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.88</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>10.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0183</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6205</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4033</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3254</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.2793</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>74.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0423</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0205</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8344</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6180</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4693</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001476</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银智能制造股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.85</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4693</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>79.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3999</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3996</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3473</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>163807</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中银优选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>78.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3332</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3162</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010861</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>长信企业优选一年持有期灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2586</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008555</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华商龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2402</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>76.35</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2360</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.77</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2169</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>64.71</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2109</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1972</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1961</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005589</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信企业精选两年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>44.64</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1575</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009059</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1502</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008085</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011160</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>163822</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009379</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>41.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0980</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.43</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008084</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>海富通先进制造股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009060</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.07</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011161</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国质量成长6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>45.79</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603906-龙蟠科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603906-龙蟠科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4319,4 +4320,2220 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>34.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1379</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8862</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>36.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7741</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2781</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0153</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>100022</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国天瑞强势地区精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>50.96</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8651</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5412</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4130</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>860001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大阳光混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>12.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1418</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>070021</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实主题新动力混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>18.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0627</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0249</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0231</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>310328</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信新动力混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>22.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8870</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通股票混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7510</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001476</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中银智能制造股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7228</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>16.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7024</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000985</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实逆向策略股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5332</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4335</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005840</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国产业驱动混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.99</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3837</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3735</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>163807</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银优选混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.92</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3438</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3329</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000061</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏盛世混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>61.76</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3105</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2812</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2514</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011956</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>24.80</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2430</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2394</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2109</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1908</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1529</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008555</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华商龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1179</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0814</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>673141</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009379</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银成长优选股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001827</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国研究优选沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010740</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011957</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华新能源精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>27.29</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010741</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>汇安核心价值混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009750</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009486</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>860036</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>光大阳光混合B</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009487</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>光大保德信瑞和混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009751</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇安价值蓝筹混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011084</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>673143</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>西部利得景程灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>011085</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>财通资管新添益6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>21.05</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>860037</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>光大阳光混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603906-龙蟠科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603906-龙蟠科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6536,4 +6537,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>57</v>
+      </c>
+      <c r="D2" t="n">
+        <v>30.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>46</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.56</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603906-龙蟠科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603906-龙蟠科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6545,7 +6546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6556,17 +6557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6576,14 +6597,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>57</v>
-      </c>
-      <c r="D2" t="n">
-        <v>30.51</v>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9358</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -6592,14 +6635,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>46</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.29</v>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8706</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -6608,14 +6673,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>31</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.56</v>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5798</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -6624,13 +6711,645 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9728</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7048</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6328</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5490</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4048</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2074</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1841</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>68.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>57</v>
+      </c>
+      <c r="D3" t="n">
+        <v>30.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>46</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.56</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>21</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>7.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603906-龙蟠科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603906-龙蟠科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7248,7 +7249,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7259,17 +7260,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7279,14 +7300,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>9.35</v>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>57.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.5406</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -7295,14 +7338,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>57</v>
-      </c>
-      <c r="D3" t="n">
-        <v>30.51</v>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>60.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4462</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -7311,14 +7376,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>46</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.29</v>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0129</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -7327,14 +7414,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>31</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.56</v>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8658</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -7343,13 +7452,623 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6800</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6545</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4507</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2294</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1902</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>53.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>57</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>46</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.56</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>21</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>7.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603906-龙蟠科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603906-龙蟠科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7951,7 +7952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7962,17 +7963,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7982,14 +8003,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.33</v>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4676</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -7998,14 +8041,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.35</v>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9817</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -8014,14 +8079,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>57</v>
-      </c>
-      <c r="D4" t="n">
-        <v>30.51</v>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5650</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -8030,14 +8117,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>46</v>
-      </c>
-      <c r="D5" t="n">
-        <v>22.29</v>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3779</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -8046,14 +8155,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>31</v>
-      </c>
-      <c r="D6" t="n">
-        <v>13.56</v>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.10</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1295</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -8062,13 +8193,905 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0211</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8494</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>13.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6831</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009837</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6288</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4033</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012767</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3231</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2928</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2046</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005681</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1479</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1378</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1215</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009838</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏磐锐一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013501</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>81.24</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>42.03</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>57</v>
+      </c>
+      <c r="D5" t="n">
+        <v>30.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>46</v>
+      </c>
+      <c r="D6" t="n">
+        <v>22.29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>31</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13.56</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>21</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>7.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603906-龙蟠科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603906-龙蟠科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>14.58</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>8.33</v>
+        <v>14.58</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>9.35</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>30.51</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D6" t="n">
-        <v>22.29</v>
+        <v>30.51</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D7" t="n">
-        <v>13.56</v>
+        <v>22.29</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>31</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.56</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>21</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>7.01</v>
       </c>
     </row>
@@ -600,6 +617,670 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0591</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4162</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0915</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6580</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5979</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5694</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013085</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3920</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3756</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012767</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1655</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005681</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>013086</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1598,708 +2279,6 @@
       </c>
       <c r="H26" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005680</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>财通资管价值成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>57.61</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.5406</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010846</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方卓越优选3个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>26.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>60.36</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.4462</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008276</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>财通资管价值发现混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>21.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0129</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009950</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>财通资管均衡价值一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>21.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.17</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8658</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010163</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>财通资管价值精选一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>16.79</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6800</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010413</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>财通资管宸瑞一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>12.66</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.6545</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011488</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>申万菱信乐享混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12.18</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>77.88</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4507</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>013634</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>申万菱信双利混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>22.26</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2294</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010847</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>南方卓越优选3个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>60.36</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1902</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010414</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>财通资管宸瑞一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0791</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004703</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方兴盛先锋灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>53.08</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0416</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>310368</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>申万菱信竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.22</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0365</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005444</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>29.09</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0259</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>013635</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>申万菱信双利混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>22.26</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0220</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>010164</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>财通资管价值精选一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0190</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001148</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>申万菱信多策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>28.34</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0160</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001724</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>申万菱信多策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>28.34</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0154</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2364,36 +2343,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009950</t>
+          <t>005680</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通资管均衡价值一年持有期混合</t>
+          <t>财通资管价值成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.33</t>
+          <t>57.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.21</t>
+          <t>91.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9358</t>
+          <t>2.5406</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2402,36 +2381,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005680</t>
+          <t>010846</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>财通资管价值成长混合</t>
+          <t>南方卓越优选3个月持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>32.76</t>
+          <t>26.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.19</t>
+          <t>60.36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8706</t>
+          <t>1.4462</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2440,36 +2419,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010846</t>
+          <t>008276</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方卓越优选3个月持有期混合A</t>
+          <t>财通资管价值发现混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>34.27</t>
+          <t>21.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>73.62</t>
+          <t>92.22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.5798</t>
+          <t>1.0129</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2478,36 +2457,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010413</t>
+          <t>009950</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>财通资管宸瑞一年持有期混合A</t>
+          <t>财通资管均衡价值一年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26.58</t>
+          <t>21.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>91.17</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.9728</t>
+          <t>0.8658</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2516,36 +2495,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009447</t>
+          <t>010163</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>财通资管科技创新一年定期开放混合</t>
+          <t>财通资管价值精选一年持有期混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17.62</t>
+          <t>16.79</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.71</t>
+          <t>90.42</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7048</t>
+          <t>0.6800</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -2554,36 +2533,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011488</t>
+          <t>010413</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>申万菱信乐享混合</t>
+          <t>财通资管宸瑞一年持有期混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>15.86</t>
+          <t>12.66</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.19</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.6328</t>
+          <t>0.6545</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -2592,36 +2571,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010163</t>
+          <t>011488</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>财通资管价值精选一年持有期混合A</t>
+          <t>申万菱信乐享混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>14.04</t>
+          <t>12.18</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>77.88</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5490</t>
+          <t>0.4507</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -2630,36 +2609,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002851</t>
+          <t>013634</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方品质优选灵活配置混合</t>
+          <t>申万菱信双利混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>73.98</t>
+          <t>22.26</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.4048</t>
+          <t>0.2294</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -2678,26 +2657,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>73.62</t>
+          <t>60.36</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2074</t>
+          <t>0.1902</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -2706,36 +2685,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008276</t>
+          <t>010414</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>财通资管价值发现混合</t>
+          <t>财通资管宸瑞一年持有期混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.13</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1841</t>
+          <t>0.0791</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -2744,36 +2723,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010414</t>
+          <t>004703</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>财通资管宸瑞一年持有期混合C</t>
+          <t>南方兴盛先锋灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>53.08</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1039</t>
+          <t>0.0416</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -2792,26 +2771,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>91.22</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0514</t>
+          <t>0.0365</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -2820,36 +2799,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004703</t>
+          <t>005444</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>南方兴盛先锋灵活配置混合</t>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>73.63</t>
+          <t>29.09</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0422</t>
+          <t>0.0259</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -2858,36 +2837,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001148</t>
+          <t>013635</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>申万菱信多策略灵活配置混合A</t>
+          <t>申万菱信双利混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>28.66</t>
+          <t>22.26</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0314</t>
+          <t>0.0220</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -2896,32 +2875,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001724</t>
+          <t>010164</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>申万菱信多策略灵活配置混合C</t>
+          <t>财通资管价值精选一年持有期混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28.66</t>
+          <t>90.42</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0263</t>
+          <t>0.0190</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -2934,32 +2913,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005444</t>
+          <t>001148</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+          <t>申万菱信多策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>68.18</t>
+          <t>28.34</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0259</t>
+          <t>0.0160</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -2972,36 +2951,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010164</t>
+          <t>001724</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>财通资管价值精选一年持有期混合C</t>
+          <t>申万菱信多策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>28.34</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0242</t>
+          <t>0.0154</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3010,6 +2989,708 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9358</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8706</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5798</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9728</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7048</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6328</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5490</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4048</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2074</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1841</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>68.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5225,7 +5906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7019,7 +7700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8246,7 +8927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603906-龙蟠科技.xlsx
+++ b/数据整理/stocks/A股/上证主板/603906-龙蟠科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>7.84</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D3" t="n">
-        <v>14.58</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>8.33</v>
+        <v>14.58</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>9.35</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>30.51</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D7" t="n">
-        <v>22.29</v>
+        <v>30.51</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="D8" t="n">
-        <v>13.56</v>
+        <v>22.29</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,884 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>31</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.56</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>21</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>7.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5472</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0768</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>60.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9956</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8401</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005123</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5740</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4508</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000800</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商未来主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3029</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2566</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009059</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2335</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>860053</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1499</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003886</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1476</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003887</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇安丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.58</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1433</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009060</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>860016</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>860052</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>光大阳光启明星创新驱动主题混合B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>582003</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>东吴配置优化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>710301</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006587</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方优享分红灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>710302</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富安达增强收益债券C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.36</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1488,518 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2485</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5778</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4912</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013085</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3412</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015630</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信乐融一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1069</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013086</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>015631</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信乐融一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>64.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1280,7 +2663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2279,708 +3662,6 @@
       </c>
       <c r="H26" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005680</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>财通资管价值成长混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>57.61</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.74</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.5406</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010846</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方卓越优选3个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>26.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>60.36</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.4462</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008276</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>财通资管价值发现混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>21.19</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.22</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.0129</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009950</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>财通资管均衡价值一年持有期混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>21.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.17</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8658</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010163</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>财通资管价值精选一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>16.79</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.6800</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010413</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>财通资管宸瑞一年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>12.66</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.6545</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011488</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>申万菱信乐享混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>12.18</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>77.88</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.4507</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>013634</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>申万菱信双利混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>7.83</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>22.26</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2294</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010847</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>南方卓越优选3个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>60.36</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.56</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1902</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>010414</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>财通资管宸瑞一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.71</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.17</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0791</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004703</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>南方兴盛先锋灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>53.08</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.82</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0416</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>310368</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>申万菱信竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>91.22</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0365</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005444</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>29.09</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0259</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>013635</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>申万菱信双利混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>22.26</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0220</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>010164</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>财通资管价值精选一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.42</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0190</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001148</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>申万菱信多策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>28.34</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0160</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001724</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>申万菱信多策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>28.34</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0154</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3045,36 +3726,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009950</t>
+          <t>005680</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>财通资管均衡价值一年持有期混合</t>
+          <t>财通资管价值成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>29.33</t>
+          <t>57.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.21</t>
+          <t>91.74</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.60</t>
+          <t>4.41</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9358</t>
+          <t>2.5406</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3083,36 +3764,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005680</t>
+          <t>010846</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>财通资管价值成长混合</t>
+          <t>南方卓越优选3个月持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>32.76</t>
+          <t>26.01</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.19</t>
+          <t>60.36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.8706</t>
+          <t>1.4462</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3121,36 +3802,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010846</t>
+          <t>008276</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方卓越优选3个月持有期混合A</t>
+          <t>财通资管价值发现混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>34.27</t>
+          <t>21.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>73.62</t>
+          <t>92.22</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.5798</t>
+          <t>1.0129</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -3159,36 +3840,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010413</t>
+          <t>009950</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>财通资管宸瑞一年持有期混合A</t>
+          <t>财通资管均衡价值一年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>26.58</t>
+          <t>21.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>91.17</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.9728</t>
+          <t>0.8658</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -3197,36 +3878,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009447</t>
+          <t>010163</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>财通资管科技创新一年定期开放混合</t>
+          <t>财通资管价值精选一年持有期混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>17.62</t>
+          <t>16.79</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.71</t>
+          <t>90.42</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7048</t>
+          <t>0.6800</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -3235,36 +3916,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011488</t>
+          <t>010413</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>申万菱信乐享混合</t>
+          <t>财通资管宸瑞一年持有期混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>15.86</t>
+          <t>12.66</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.19</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.99</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.6328</t>
+          <t>0.6545</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -3273,36 +3954,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010163</t>
+          <t>011488</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>财通资管价值精选一年持有期混合A</t>
+          <t>申万菱信乐享混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>14.04</t>
+          <t>12.18</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>77.88</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.70</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5490</t>
+          <t>0.4507</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -3311,36 +3992,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002851</t>
+          <t>013634</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>南方品质优选灵活配置混合</t>
+          <t>申万菱信双利混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>8.80</t>
+          <t>7.83</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>73.98</t>
+          <t>22.26</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.4048</t>
+          <t>0.2294</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -3359,26 +4040,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>73.62</t>
+          <t>60.36</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>5.56</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2074</t>
+          <t>0.1902</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -3387,36 +4068,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008276</t>
+          <t>010414</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>财通资管价值发现混合</t>
+          <t>财通资管宸瑞一年持有期混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.23</t>
+          <t>1.53</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.13</t>
+          <t>94.71</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.70</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1841</t>
+          <t>0.0791</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -3425,36 +4106,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010414</t>
+          <t>004703</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>财通资管宸瑞一年持有期混合C</t>
+          <t>南方兴盛先锋灵活配置混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.84</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>53.08</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.66</t>
+          <t>3.82</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1039</t>
+          <t>0.0416</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -3473,26 +4154,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>91.22</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0514</t>
+          <t>0.0365</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -3501,36 +4182,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>004703</t>
+          <t>005444</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>南方兴盛先锋灵活配置混合</t>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>73.63</t>
+          <t>29.09</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0422</t>
+          <t>0.0259</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -3539,36 +4220,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001148</t>
+          <t>013635</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>申万菱信多策略灵活配置混合A</t>
+          <t>申万菱信双利混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>28.66</t>
+          <t>22.26</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0314</t>
+          <t>0.0220</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -3577,32 +4258,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001724</t>
+          <t>010164</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>申万菱信多策略灵活配置混合C</t>
+          <t>财通资管价值精选一年持有期混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2.41</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>28.66</t>
+          <t>90.42</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0263</t>
+          <t>0.0190</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -3615,32 +4296,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005444</t>
+          <t>001148</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+          <t>申万菱信多策略灵活配置混合A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>68.18</t>
+          <t>28.34</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0259</t>
+          <t>0.0160</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -3653,36 +4334,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010164</t>
+          <t>001724</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>财通资管价值精选一年持有期混合C</t>
+          <t>申万菱信多策略灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.62</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>28.34</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0242</t>
+          <t>0.0154</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3691,6 +4372,708 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9358</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8706</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010846</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.27</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5798</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9728</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7048</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6328</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5490</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002851</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方品质优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4048</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010847</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方卓越优选3个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2074</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1841</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004703</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方兴盛先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>68.18</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5906,7 +7289,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7700,7 +9083,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8925,858 +10308,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002851</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方品质优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>21.67</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.05</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.5472</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>310358</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>申万菱信新经济混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.24</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>83.73</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.58</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0768</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009447</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>财通资管科技创新一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10.48</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>60.91</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.50</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9956</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005680</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>财通资管价值成长混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.76</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.82</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.59</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8401</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005123</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>南方优享分红灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.17</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.35</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5740</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008276</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>财通资管价值发现混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.01</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>9.80</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4508</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000800</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华商未来主题混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.06</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>82.01</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3029</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004703</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>南方兴盛先锋灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.80</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.31</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.2566</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009059</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>南方沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.2335</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>860053</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>光大阳光启明星创新驱动主题混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1499</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003886</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>汇安丰利灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>8.58</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1476</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>003887</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇安丰利灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.49</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>8.58</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1433</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>410001</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华富竞争力优选混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.56</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1345</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>009060</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>南方沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.81</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0340</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002289</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华商改革创新股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>95.49</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0336</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>860016</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>光大阳光启明星创新驱动主题混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0312</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>860052</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>光大阳光启明星创新驱动主题混合B</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>91.00</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0312</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>582003</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>东吴配置优化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0087</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>710301</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>富安达增强收益债券A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>20.36</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0068</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006587</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>南方优享分红灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>90.35</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>710302</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>富安达增强收益债券C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>20.36</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>